--- a/mosip_master/xlsx/process_list.xlsx
+++ b/mosip_master/xlsx/process_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Authentification intégrée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصادقة تسجيل الدخول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصادقة Eod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصادقة الحزمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصادقة الاستثناء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المصادقة على متن الطائرة</t>
   </si>
 </sst>
 </file>
@@ -197,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,10 +198,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,17 +217,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D16"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -437,91 +412,6 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/process_list.xlsx
+++ b/mosip_master/xlsx/process_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -107,60 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">المصادقة على متن الطائرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಲಾಗಿನ್ ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eod ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪ್ಯಾಕೆಟ್ ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವಿನಾಯಿತಿ ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಆನ್‌ಬೋರ್ಡ್ ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लॉगिन प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ईओडी प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पैकेट प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अपवाद प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जहाज पर प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">உள்நுழைவு அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eod அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பாக்கெட் அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விதிவிலக்கு அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">உள் அங்கீகாரம்</t>
   </si>
 </sst>
 </file>
@@ -251,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,261 +525,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
